--- a/pipeline.xlsx
+++ b/pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GyeonggooLee\greetlounge\greetlounge\피드백\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0703164C-B717-4AA7-822F-49C839CDA2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40DB550-265E-40FD-99B3-8E637B527E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="4042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="4138">
   <si>
     <t>RN124335535</t>
   </si>
@@ -12153,6 +12153,294 @@
   </si>
   <si>
     <t>RN124554874</t>
+  </si>
+  <si>
+    <t>RN125233810</t>
+  </si>
+  <si>
+    <t>RN124533604</t>
+  </si>
+  <si>
+    <t>RN125261168</t>
+  </si>
+  <si>
+    <t>RN124598515</t>
+  </si>
+  <si>
+    <t>RN124524815</t>
+  </si>
+  <si>
+    <t>RN124522887</t>
+  </si>
+  <si>
+    <t>RN124491637</t>
+  </si>
+  <si>
+    <t>RN124510261</t>
+  </si>
+  <si>
+    <t>RN124479394</t>
+  </si>
+  <si>
+    <t>RN125296683</t>
+  </si>
+  <si>
+    <t>RN124528238</t>
+  </si>
+  <si>
+    <t>RN124601519</t>
+  </si>
+  <si>
+    <t>RN124523942</t>
+  </si>
+  <si>
+    <t>RN124536352</t>
+  </si>
+  <si>
+    <t>RN124565794</t>
+  </si>
+  <si>
+    <t>RN124481295</t>
+  </si>
+  <si>
+    <t>RN124419541</t>
+  </si>
+  <si>
+    <t>RN124518602</t>
+  </si>
+  <si>
+    <t>RN124388596</t>
+  </si>
+  <si>
+    <t>RN124429822</t>
+  </si>
+  <si>
+    <t>RN124518736</t>
+  </si>
+  <si>
+    <t>RN125300488</t>
+  </si>
+  <si>
+    <t>RN125207623</t>
+  </si>
+  <si>
+    <t>RN124476470</t>
+  </si>
+  <si>
+    <t>RN124502032</t>
+  </si>
+  <si>
+    <t>RN124557756</t>
+  </si>
+  <si>
+    <t>RN124587821</t>
+  </si>
+  <si>
+    <t>RN124542120</t>
+  </si>
+  <si>
+    <t>RN124450848</t>
+  </si>
+  <si>
+    <t>RN124504888</t>
+  </si>
+  <si>
+    <t>RN124613577</t>
+  </si>
+  <si>
+    <t>RN124501749</t>
+  </si>
+  <si>
+    <t>RN125158628</t>
+  </si>
+  <si>
+    <t>RN125062524</t>
+  </si>
+  <si>
+    <t>RN124578465</t>
+  </si>
+  <si>
+    <t>RN124510205</t>
+  </si>
+  <si>
+    <t>RN124610050</t>
+  </si>
+  <si>
+    <t>RN124511902</t>
+  </si>
+  <si>
+    <t>RN124560731</t>
+  </si>
+  <si>
+    <t>RN124473136</t>
+  </si>
+  <si>
+    <t>RN124521035</t>
+  </si>
+  <si>
+    <t>RN125265925</t>
+  </si>
+  <si>
+    <t>RN124488531</t>
+  </si>
+  <si>
+    <t>RN124556071</t>
+  </si>
+  <si>
+    <t>RN124476889</t>
+  </si>
+  <si>
+    <t>RN124600945</t>
+  </si>
+  <si>
+    <t>RN124516235</t>
+  </si>
+  <si>
+    <t>RN124529615</t>
+  </si>
+  <si>
+    <t>RN124544648</t>
+  </si>
+  <si>
+    <t>RN124542949</t>
+  </si>
+  <si>
+    <t>RN124497373</t>
+  </si>
+  <si>
+    <t>RN124582479</t>
+  </si>
+  <si>
+    <t>RN124459263</t>
+  </si>
+  <si>
+    <t>RN124496266</t>
+  </si>
+  <si>
+    <t>RN124533025</t>
+  </si>
+  <si>
+    <t>RN124473939</t>
+  </si>
+  <si>
+    <t>RN124515900</t>
+  </si>
+  <si>
+    <t>RN124530369</t>
+  </si>
+  <si>
+    <t>RN124564007</t>
+  </si>
+  <si>
+    <t>RN124505540</t>
+  </si>
+  <si>
+    <t>RN124554533</t>
+  </si>
+  <si>
+    <t>RN124498900</t>
+  </si>
+  <si>
+    <t>RN124525574</t>
+  </si>
+  <si>
+    <t>RN124453943</t>
+  </si>
+  <si>
+    <t>RN124560545</t>
+  </si>
+  <si>
+    <t>RN124546676</t>
+  </si>
+  <si>
+    <t>RN125322763</t>
+  </si>
+  <si>
+    <t>RN124486890</t>
+  </si>
+  <si>
+    <t>RN125344871</t>
+  </si>
+  <si>
+    <t>RN124511664</t>
+  </si>
+  <si>
+    <t>RN124487695</t>
+  </si>
+  <si>
+    <t>RN125071483</t>
+  </si>
+  <si>
+    <t>RN124390638</t>
+  </si>
+  <si>
+    <t>RN125301316</t>
+  </si>
+  <si>
+    <t>RN124485903</t>
+  </si>
+  <si>
+    <t>RN124440517</t>
+  </si>
+  <si>
+    <t>RN124490740</t>
+  </si>
+  <si>
+    <t>RN124543122</t>
+  </si>
+  <si>
+    <t>RN125311728</t>
+  </si>
+  <si>
+    <t>RN124543815</t>
+  </si>
+  <si>
+    <t>RN124524505</t>
+  </si>
+  <si>
+    <t>RN125332095</t>
+  </si>
+  <si>
+    <t>RN124517679</t>
+  </si>
+  <si>
+    <t>RN125294533</t>
+  </si>
+  <si>
+    <t>RN124429069</t>
+  </si>
+  <si>
+    <t>RN124335273</t>
+  </si>
+  <si>
+    <t>RN125322704</t>
+  </si>
+  <si>
+    <t>RN125334059</t>
+  </si>
+  <si>
+    <t>RN124526255</t>
+  </si>
+  <si>
+    <t>RN124484172</t>
+  </si>
+  <si>
+    <t>RN124536672</t>
+  </si>
+  <si>
+    <t>RN124554908</t>
+  </si>
+  <si>
+    <t>RN125333144</t>
+  </si>
+  <si>
+    <t>RN125323816</t>
+  </si>
+  <si>
+    <t>RN124393447</t>
+  </si>
+  <si>
+    <t>RN124564907</t>
   </si>
 </sst>
 </file>
@@ -12160,7 +12448,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -12220,7 +12508,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12506,10 +12794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4041"/>
+  <dimension ref="A1:B4138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4010" workbookViewId="0">
-      <selection activeCell="B4031" sqref="B4031"/>
+    <sheetView tabSelected="1" topLeftCell="A4112" workbookViewId="0">
+      <selection activeCell="G4132" sqref="G4132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15470,7 +15758,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>45835</v>
       </c>
@@ -15478,7 +15766,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>45835</v>
       </c>
@@ -15486,7 +15774,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>45835</v>
       </c>
@@ -15494,7 +15782,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>45835</v>
       </c>
@@ -15502,7 +15790,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>45835</v>
       </c>
@@ -15510,7 +15798,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>45835</v>
       </c>
@@ -15518,7 +15806,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>45835</v>
       </c>
@@ -15526,7 +15814,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>45835</v>
       </c>
@@ -15534,7 +15822,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>45835</v>
       </c>
@@ -15542,7 +15830,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>45835</v>
       </c>
@@ -15550,7 +15838,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>45835</v>
       </c>
@@ -15558,7 +15846,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>45835</v>
       </c>
@@ -15566,7 +15854,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>45835</v>
       </c>
@@ -15574,7 +15862,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>45835</v>
       </c>
@@ -15582,7 +15870,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>45835</v>
       </c>
@@ -15590,7 +15878,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>45835</v>
       </c>
@@ -15598,7 +15886,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>45835</v>
       </c>
@@ -15606,7 +15894,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>45835</v>
       </c>
@@ -15614,7 +15902,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>45835</v>
       </c>
@@ -15622,7 +15910,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>45835</v>
       </c>
@@ -15630,7 +15918,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>45835</v>
       </c>
@@ -15638,7 +15926,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>45835</v>
       </c>
@@ -15646,7 +15934,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>45835</v>
       </c>
@@ -15654,7 +15942,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>45835</v>
       </c>
@@ -15662,7 +15950,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>45835</v>
       </c>
@@ -15670,7 +15958,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>45835</v>
       </c>
@@ -15678,7 +15966,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>45835</v>
       </c>
@@ -15686,7 +15974,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>45835</v>
       </c>
@@ -15694,7 +15982,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>45835</v>
       </c>
@@ -15702,7 +15990,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>45835</v>
       </c>
@@ -15710,7 +15998,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>45835</v>
       </c>
@@ -15718,7 +16006,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>45835</v>
       </c>
@@ -15726,7 +16014,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>45835</v>
       </c>
@@ -15734,7 +16022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>45835</v>
       </c>
@@ -15742,7 +16030,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>45835</v>
       </c>
@@ -15750,7 +16038,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>45835</v>
       </c>
@@ -15758,7 +16046,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>45835</v>
       </c>
@@ -15766,7 +16054,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>45835</v>
       </c>
@@ -15774,7 +16062,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>45835</v>
       </c>
@@ -15782,7 +16070,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>45835</v>
       </c>
@@ -15790,7 +16078,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>45835</v>
       </c>
@@ -15798,7 +16086,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>45835</v>
       </c>
@@ -15806,7 +16094,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>45835</v>
       </c>
@@ -15814,7 +16102,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>45835</v>
       </c>
@@ -15822,7 +16110,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>45835</v>
       </c>
@@ -15830,7 +16118,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>45835</v>
       </c>
@@ -15838,7 +16126,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>45835</v>
       </c>
@@ -15846,7 +16134,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>45835</v>
       </c>
@@ -15854,7 +16142,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>45835</v>
       </c>
@@ -15862,7 +16150,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>45835</v>
       </c>
@@ -15870,7 +16158,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>45835</v>
       </c>
@@ -15878,7 +16166,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>45835</v>
       </c>
@@ -15886,7 +16174,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>45835</v>
       </c>
@@ -15894,7 +16182,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>45835</v>
       </c>
@@ -15902,7 +16190,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>45835</v>
       </c>
@@ -15910,7 +16198,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>45835</v>
       </c>
@@ -15918,7 +16206,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>45835</v>
       </c>
@@ -15926,7 +16214,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>45835</v>
       </c>
@@ -15934,7 +16222,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>45835</v>
       </c>
@@ -15942,7 +16230,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>45835</v>
       </c>
@@ -15950,7 +16238,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>45835</v>
       </c>
@@ -15958,7 +16246,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>45835</v>
       </c>
@@ -15966,7 +16254,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>45835</v>
       </c>
@@ -15974,7 +16262,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>45835</v>
       </c>
@@ -15982,7 +16270,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>45835</v>
       </c>
@@ -15990,7 +16278,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>45835</v>
       </c>
@@ -15998,7 +16286,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>45835</v>
       </c>
@@ -16006,7 +16294,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>45835</v>
       </c>
@@ -16014,7 +16302,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>45835</v>
       </c>
@@ -16022,7 +16310,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>45835</v>
       </c>
@@ -16030,7 +16318,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>45835</v>
       </c>
@@ -16038,7 +16326,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>45835</v>
       </c>
@@ -16046,7 +16334,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>45835</v>
       </c>
@@ -16054,7 +16342,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>45835</v>
       </c>
@@ -16062,7 +16350,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>45835</v>
       </c>
@@ -16070,7 +16358,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>45835</v>
       </c>
@@ -16078,7 +16366,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>45835</v>
       </c>
@@ -16086,7 +16374,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>45835</v>
       </c>
@@ -16094,7 +16382,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>45835</v>
       </c>
@@ -16102,7 +16390,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>45835</v>
       </c>
@@ -16110,7 +16398,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>45835</v>
       </c>
@@ -16118,7 +16406,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>45835</v>
       </c>
@@ -16126,7 +16414,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>45835</v>
       </c>
@@ -16134,7 +16422,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
         <v>45835</v>
       </c>
@@ -16142,7 +16430,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>45835</v>
       </c>
@@ -16150,7 +16438,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>45835</v>
       </c>
@@ -16158,7 +16446,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>45835</v>
       </c>
@@ -16166,7 +16454,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>45835</v>
       </c>
@@ -16174,7 +16462,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>45835</v>
       </c>
@@ -16182,7 +16470,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>45835</v>
       </c>
@@ -16190,7 +16478,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>45835</v>
       </c>
@@ -16198,7 +16486,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>45835</v>
       </c>
@@ -16206,7 +16494,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>45835</v>
       </c>
@@ -16214,7 +16502,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>45835</v>
       </c>
@@ -16222,7 +16510,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>45835</v>
       </c>
@@ -16230,7 +16518,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>45835</v>
       </c>
@@ -16238,7 +16526,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>45835</v>
       </c>
@@ -16246,7 +16534,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>45835</v>
       </c>
@@ -16254,7 +16542,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>45835</v>
       </c>
@@ -16262,7 +16550,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>45835</v>
       </c>
@@ -16270,7 +16558,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>45835</v>
       </c>
@@ -16278,7 +16566,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>45835</v>
       </c>
@@ -16286,7 +16574,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>45835</v>
       </c>
@@ -16294,7 +16582,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>45835</v>
       </c>
@@ -16302,7 +16590,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>45835</v>
       </c>
@@ -16310,7 +16598,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="3">
         <v>45835</v>
       </c>
@@ -16318,7 +16606,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>45835</v>
       </c>
@@ -16326,7 +16614,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="3">
         <v>45835</v>
       </c>
@@ -16334,7 +16622,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>45835</v>
       </c>
@@ -16342,7 +16630,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="3">
         <v>45835</v>
       </c>
@@ -16350,7 +16638,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>45835</v>
       </c>
@@ -16358,7 +16646,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>45835</v>
       </c>
@@ -16366,7 +16654,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="3">
         <v>45835</v>
       </c>
@@ -16374,7 +16662,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="3">
         <v>45835</v>
       </c>
@@ -16382,7 +16670,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>45835</v>
       </c>
@@ -16390,7 +16678,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="3">
         <v>45835</v>
       </c>
@@ -16398,7 +16686,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>45835</v>
       </c>
@@ -16406,7 +16694,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="3">
         <v>45835</v>
       </c>
@@ -16414,7 +16702,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>45835</v>
       </c>
@@ -16422,7 +16710,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="3">
         <v>45835</v>
       </c>
@@ -16430,7 +16718,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>45835</v>
       </c>
@@ -16438,7 +16726,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="3">
         <v>45835</v>
       </c>
@@ -16446,7 +16734,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>45835</v>
       </c>
@@ -16454,7 +16742,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>45835</v>
       </c>
@@ -16462,7 +16750,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>45835</v>
       </c>
@@ -16470,7 +16758,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="3">
         <v>45835</v>
       </c>
@@ -16478,7 +16766,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>45835</v>
       </c>
@@ -16486,7 +16774,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="3">
         <v>45835</v>
       </c>
@@ -16494,7 +16782,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>45835</v>
       </c>
@@ -16502,7 +16790,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>45835</v>
       </c>
@@ -16510,7 +16798,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>45835</v>
       </c>
@@ -16518,7 +16806,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>45835</v>
       </c>
@@ -16526,7 +16814,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="3">
         <v>45835</v>
       </c>
@@ -16534,7 +16822,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="3">
         <v>45835</v>
       </c>
@@ -16542,7 +16830,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="3">
         <v>45835</v>
       </c>
@@ -16550,7 +16838,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="3">
         <v>45835</v>
       </c>
@@ -16558,7 +16846,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="3">
         <v>45835</v>
       </c>
@@ -16566,7 +16854,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
         <v>45835</v>
       </c>
@@ -16574,7 +16862,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="3">
         <v>45835</v>
       </c>
@@ -16582,7 +16870,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="3">
         <v>45835</v>
       </c>
@@ -16590,7 +16878,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="3">
         <v>45835</v>
       </c>
@@ -16598,7 +16886,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="3">
         <v>45835</v>
       </c>
@@ -16606,7 +16894,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="3">
         <v>45835</v>
       </c>
@@ -16614,7 +16902,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="3">
         <v>45835</v>
       </c>
@@ -16622,7 +16910,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="3">
         <v>45835</v>
       </c>
@@ -16630,7 +16918,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="3">
         <v>45835</v>
       </c>
@@ -16638,7 +16926,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="3">
         <v>45835</v>
       </c>
@@ -16646,7 +16934,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="3">
         <v>45835</v>
       </c>
@@ -39054,7 +39342,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="3318" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="3318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3318" s="3">
         <v>45856</v>
       </c>
@@ -44844,6 +45132,782 @@
       </c>
       <c r="B4041" t="s">
         <v>4041</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4042" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4042" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4043" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4043" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4044" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4044" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4045" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4045" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4046" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4046" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4047" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4047" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4048" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4048" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4049" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4049" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4050" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4050" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4051" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4051" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4052" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4052" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4053" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4053" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4054" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4054" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4055" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4055" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4056" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4056" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4057" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4057" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4058" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4058" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4059" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4059" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4060" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4060" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4061" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4061" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4062" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4062" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4063" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4063" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4064" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4064" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4065" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4065" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4066" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4066" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4067" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4067" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4068" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4068" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4069" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4069" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4070" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4070" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4071" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4071" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4072" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4072" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4073" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4073" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4074" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4074" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4075" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4075" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4076" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4076" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4077" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4077" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4078" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4078" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4079" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4079" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4080" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4080" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4081" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4081" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4082" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4082" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4083" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4083" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4084" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4084" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4085" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4085" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4086" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4086" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4087" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4087" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4088" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4088" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4089" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4089" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4090" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4090" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4091" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4091" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4092" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4092" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4093" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4093" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4094" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4094" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4095" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4095" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4096" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4096" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4097" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4097" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4098" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4098" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4099" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4099" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4100" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4100" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4101" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4101" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4102" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4102" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4103" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4103" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4104" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4104" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4105" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4105" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4106" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4106" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4107" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4107" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4108" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4108" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4109" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4109" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4110" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4110" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4111" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4111" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4112" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4112" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4113" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4113" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4114" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4114" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4115" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4115" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4116" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4116" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4117" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4117" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4118" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4118" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4119" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4119" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4120" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4120" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4121" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4121" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4122" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4122" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4123" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4123" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4124" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4124" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4125" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4125" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4126" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4126" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4127" s="3">
+        <v>45866</v>
+      </c>
+      <c r="B4127" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4128" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4128" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4129" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4129" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4130" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4130" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4131" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4131" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4132" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4132" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4133" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4133" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4134" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4134" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4135" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4135" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4136" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4136" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4137" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4137" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4138" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B4138" t="s">
+        <v>4137</v>
       </c>
     </row>
   </sheetData>
